--- a/StructureDefinition-ext-R5-ExplanationOfBenefit.procedure.xlsx
+++ b/StructureDefinition-ext-R5-ExplanationOfBenefit.procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="174">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -450,15 +450,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Example procedure type codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-procedure-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:date</t>
@@ -530,13 +521,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1)</t>
-  </si>
-  <si>
-    <t>ICD10 Procedure codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-icd-10-procedures-for-R4</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure)</t>
   </si>
   <si>
     <t>Extension.extension:udi</t>
@@ -570,7 +555,7 @@
     <t>Extension.extension:udi.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
   <si>
@@ -931,8 +916,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="26.13671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.34765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2371,13 +2356,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2415,13 +2400,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2446,14 +2431,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2522,7 +2507,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2625,7 +2610,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2730,7 +2715,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2773,7 +2758,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2835,7 +2820,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -2861,13 +2846,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2938,13 +2923,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2969,14 +2954,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3045,7 +3030,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3148,7 +3133,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3253,7 +3238,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3296,7 +3281,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3358,7 +3343,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3384,13 +3369,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3417,13 +3402,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3461,13 +3446,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3492,14 +3477,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3568,7 +3553,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3671,7 +3656,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3776,7 +3761,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3819,7 +3804,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3881,7 +3866,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -3907,13 +3892,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4115,13 +4100,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
